--- a/temp.xlsx
+++ b/temp.xlsx
@@ -12,45 +12,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Przeglądy</t>
   </si>
   <si>
+    <t>AKTUALNY PRZEBIEG [KM]</t>
+  </si>
+  <si>
     <t>DATA</t>
   </si>
   <si>
+    <t>DODATKOWE INFORMACJE</t>
+  </si>
+  <si>
     <t>POJAZD</t>
   </si>
   <si>
+    <t>PRZEBIEG NASTĘPNEGO PRZEGLĄDU [KM]</t>
+  </si>
+  <si>
+    <t>TYP OLEJU</t>
+  </si>
+  <si>
+    <t>WYMIANA FILTRA KABINOWEGO</t>
+  </si>
+  <si>
+    <t>WYMIANA FILTRA OLEJU</t>
+  </si>
+  <si>
+    <t>WYMIANA FILTRA PALIWA</t>
+  </si>
+  <si>
+    <t>WYMIANA FILTRA POWIETRZA</t>
+  </si>
+  <si>
+    <t>WYMIANA OLEJU</t>
+  </si>
+  <si>
+    <t>WYMIANA ŚWIEC ZAPŁONOWYCH</t>
+  </si>
+  <si>
     <t>2023-11-01</t>
   </si>
   <si>
+    <t>2023-08-31</t>
+  </si>
+  <si>
+    <t>Olej Motul</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>Audi A5 (SCI3234J)</t>
   </si>
   <si>
+    <t>5W-30</t>
+  </si>
+  <si>
+    <t>Tak</t>
+  </si>
+  <si>
+    <t>Nie</t>
+  </si>
+  <si>
+    <t>Ubezpieczenia</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>ASSISTANCE</t>
+  </si>
+  <si>
+    <t>DATA DO</t>
+  </si>
+  <si>
+    <t>DATA OD</t>
+  </si>
+  <si>
+    <t>FIRMA</t>
+  </si>
+  <si>
+    <t>ILOŚĆ RAT</t>
+  </si>
+  <si>
+    <t>RODZAJ OCHRONY AC</t>
+  </si>
+  <si>
+    <t>TERMINY PŁATNOŚCI</t>
+  </si>
+  <si>
+    <t>2023-03-03</t>
+  </si>
+  <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
+    <t>PZU</t>
+  </si>
+  <si>
+    <t>Skoda Rapid (SCI6666K)</t>
+  </si>
+  <si>
+    <t>2022-03-17</t>
+  </si>
+  <si>
     <t>Wydatki</t>
   </si>
   <si>
     <t>INFORMACJE</t>
   </si>
   <si>
-    <t>KWOTA</t>
-  </si>
-  <si>
-    <t>2023-08-31</t>
-  </si>
-  <si>
-    <t>Ubezpieczenia</t>
-  </si>
-  <si>
-    <t>DATA DO</t>
-  </si>
-  <si>
-    <t>DATA OD</t>
-  </si>
-  <si>
-    <t>2023-04-01</t>
+    <t>KWOTA [PLN]</t>
+  </si>
+  <si>
+    <t>ZAŁĄCZNIKI</t>
+  </si>
+  <si>
+    <t>Wymiana rozrządu, silnika i całej reszty</t>
+  </si>
+  <si>
+    <t>Pomiary.xlsx</t>
   </si>
 </sst>
 </file>
@@ -58,43 +142,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -147,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true"/>
@@ -165,24 +219,6 @@
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true"/>
     </xf>
   </cellXfs>
@@ -191,16 +227,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.7421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.21484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="8.21484375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.3515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.9140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="25.98828125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="17.7421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="39.5234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.61328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="31.25" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="23.65625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="25.34765625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="29.0234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="16.97265625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="32.29296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -208,74 +252,222 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
+      <c r="A5" t="n">
+        <v>205000.0</v>
+      </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>215000.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>203000.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>203000.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="H11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>2</v>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19"/>
-    <row r="20"/>
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="n">
+        <v>13000.0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
